--- a/PDRB Lapangan Usaha Publikasi Softfile/Laju Pertumbuhan Produk Domestik Regional Bruto Atas Dasar Harga Konstan 2010 Kota Mojokerto Menurut Lapangan Usaha (persen), 2019─2023.xlsx
+++ b/PDRB Lapangan Usaha Publikasi Softfile/Laju Pertumbuhan Produk Domestik Regional Bruto Atas Dasar Harga Konstan 2010 Kota Mojokerto Menurut Lapangan Usaha (persen), 2019─2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\openpgsvc\Downloads\PDRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88163864-F62C-4C4C-AFB4-65FA154C1FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65650D5-B23E-4D6B-B0E8-C143E8847BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{446E3A61-27CC-4342-8D5C-549AA579247E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{446E3A61-27CC-4342-8D5C-549AA579247E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lapangan Usaha/Industry</t>
-  </si>
-  <si>
-    <t>2022 (Angka sementara)</t>
-  </si>
-  <si>
-    <t>2023 (Angka sangat sementara)</t>
   </si>
   <si>
     <t>Pertanian, Kehutanan, dan Perikanan/ Agriculture, Forestry and Fishing</t>
@@ -132,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,54 +149,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,14 +170,27 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16380CC4-F518-4540-A095-B555CDA5F82E}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,395 +522,396 @@
     <col min="6" max="6" width="44.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="13">
         <v>2019</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="13">
         <v>2020</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="13">
         <v>2021</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="11">
+        <v>-1.54</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8.16</v>
+      </c>
+      <c r="D2" s="12">
+        <v>-2.41</v>
+      </c>
+      <c r="E2" s="12">
+        <v>-3.09</v>
+      </c>
+      <c r="F2" s="12">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>-1.54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.16</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-2.41</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-3.09</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-7.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-3.55</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-13.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.33</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
-        <v>3.03</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-3.55</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2.98</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6.06</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-13.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
-        <v>6.24</v>
-      </c>
-      <c r="C5" s="8">
-        <v>-0.33</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2.56</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5.79</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="B7" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-6.26</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12">
-        <v>4.87</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6.17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.61</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
-        <v>5.78</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-6.26</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6.86</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="B9" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-6.43</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.91</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15.19</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
-        <v>5.88</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6.54</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6.42</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="B10" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-8.16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <v>7.78</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-6.43</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.91</v>
-      </c>
-      <c r="E9" s="5">
-        <v>15.19</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="B11" s="4">
+        <v>7.09</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.87</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.46</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
-        <v>7.78</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-8.16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.45</v>
-      </c>
-      <c r="E10" s="5">
-        <v>7.75</v>
-      </c>
-      <c r="F10" s="6">
-        <v>8.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="B12" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
-        <v>7.09</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7.87</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4.46</v>
-      </c>
-      <c r="F11" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="B13" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
-        <v>4.45</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.51</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="B14" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-7.24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
-        <v>4.04</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3.27</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="B15" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-2.42</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12">
-        <v>5.37</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-7.24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="F14" s="6">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="B16" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="C15" s="5">
-        <v>-2.42</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="B17" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
-        <v>6.15</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.88</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1.57</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="B18" s="4">
+        <v>5.84</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-14.5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="E18" s="4">
+        <v>14.81</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3.94</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5.84</v>
-      </c>
-      <c r="C18" s="12">
-        <v>-14.5</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3.71</v>
-      </c>
-      <c r="E18" s="5">
-        <v>14.81</v>
-      </c>
-      <c r="F18" s="6">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="B19" s="4">
         <v>5.65</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="4">
         <v>-3.69</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="4">
         <v>3.65</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="4">
         <v>5.56</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="5">
         <v>2.79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>